--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E615B43-DB60-4211-9CCF-A148FB1B9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE753242-B8D2-4C19-854F-BAB3C5A2CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>DotNet8-Dapper</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-2024-04</t>
+  </si>
+  <si>
+    <t>DotNet8-2024-04</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-MinimalAPIs-TypedResults-InternalServerError_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>MFA_GlobalAzure-SaoPaulo-2024</t>
+  </si>
+  <si>
+    <t>DotNet8-ConsoleApp-ADB2C-SignIn-GraphAPI-Serilog-Sharprompt</t>
+  </si>
+  <si>
+    <t>Kubernetes-KEDA-Cron-Workload</t>
   </si>
 </sst>
 </file>
@@ -352,17 +370,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A17:B18"/>
+  <dimension ref="A15:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
@@ -386,17 +420,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A18:B18"/>
+  <dimension ref="A14:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE753242-B8D2-4C19-854F-BAB3C5A2CAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E7F39-B56D-4DE5-A32D-4764E9946019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>Kubernetes-KEDA-Cron-Workload</t>
+  </si>
+  <si>
+    <t>TDD-BDD-2024-04</t>
+  </si>
+  <si>
+    <t>Kafka-VSCode-Producer-Consumer</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Build-iOS</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Jaeger-DotNet8-APIs-PostgreSQL-2024-05</t>
+  </si>
+  <si>
+    <t>DotNet9-2024-06</t>
+  </si>
+  <si>
+    <t>AzureAzureAPIM-Grafana-Integration</t>
   </si>
 </sst>
 </file>
@@ -370,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A15:B18"/>
+  <dimension ref="A9:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,6 +399,38 @@
     <col min="1" max="1" width="67.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
@@ -420,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A14:B18"/>
+  <dimension ref="A8:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,6 +481,22 @@
     <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\2024-2025\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E7F39-B56D-4DE5-A32D-4764E9946019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167DCE0-FAF1-4D86-B5C7-36ACFED8EDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>AzureAzureAPIM-Grafana-Integration</t>
+  </si>
+  <si>
+    <t>DotNet8-Refit-JWT-Polly-Jose_ConsumoAPIContagem</t>
+  </si>
+  <si>
+    <t>AzureFunctions-DotNet8-MicrosoftEntra-APIM-Http-RESTClient</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-MinimalAPIs-JWT-Swagger-Extensions-Mermaid-HttpFiles-Mermaid_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-TimeSpan</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-MinimalAPIs-TypedResults-InternalServerError_ContagemAcessos-v2</t>
   </si>
 </sst>
 </file>
@@ -388,78 +403,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A9:B18"/>
+  <dimension ref="A8:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B23">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B24">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B25">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B26">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B27">
         <v>0</v>
       </c>
     </row>
@@ -470,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A8:B18"/>
+  <dimension ref="A8:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,51 +536,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B21">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B26">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\2024-2025\MVP_2024-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167DCE0-FAF1-4D86-B5C7-36ACFED8EDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF233A16-77DB-47FE-99A0-41EECB078AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -86,6 +86,45 @@
   </si>
   <si>
     <t>ASPNETCore9-MinimalAPIs-TypedResults-InternalServerError_ContagemAcessos-v2</t>
+  </si>
+  <si>
+    <t>ElasticAPM-DotNet8-Redis-Postgres-MySQL_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>APIGateways_DevOpsExperience-2024-04</t>
+  </si>
+  <si>
+    <t>Escalabilidade-BDs-SENAI-2024-05</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-REST_API-Minimal-CacheOutputRedis-WaitingTime_HorarioAtual</t>
+  </si>
+  <si>
+    <t>CSharp13-ConsoleApp-ParamsCollections</t>
+  </si>
+  <si>
+    <t>DotNet8-Worker-AzureEventHubs-SqlServer-Dapper-AppInsightsConnString-Processor_PesquisaInteresses</t>
+  </si>
+  <si>
+    <t>DotNet8-AzureFunctions-Isolated-AzureEventHubs-SqlServer-Dapper_PesquisaInteresses</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-RESTAPI-Metrics_Simulation</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-MinimalAPIs-OpenApi_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>DotNet8-NuGet-xUnit-FluentAssertions_ConversorDistancias</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-MVC-AzureEventHubs-AppInsightsConnString_SitePesquisaInteresses</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-LINQ-AggregateBy</t>
+  </si>
+  <si>
+    <t>AzureDevOps-OWASPDependencyCheck</t>
   </si>
 </sst>
 </file>
@@ -403,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A8:B27"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,65 +453,64 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B20">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B21">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -480,34 +518,106 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -517,78 +627,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A8:B26"/>
+  <dimension ref="A16:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B16">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B17">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
         <v>0</v>
       </c>
-      <c r="B26">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF233A16-77DB-47FE-99A0-41EECB078AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B1BC9-B70B-43FA-B354-05A403004D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>AzureDevOps-OWASPDependencyCheck</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Pipelines-RabbitMQ-k6-LoadTests_v2</t>
+  </si>
+  <si>
+    <t>DotNet8-MicrosoftEntra-APIMRefit-JWT-Polly-Jose_ConsumoAPIContagem</t>
+  </si>
+  <si>
+    <t>Kubernetes-KEDA_2024-06</t>
+  </si>
+  <si>
+    <t>KEDA-JuntosPeloRS-2024-06</t>
   </si>
 </sst>
 </file>
@@ -442,9 +454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A15:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -453,88 +465,97 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -542,81 +563,65 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
         <v>11</v>
       </c>
     </row>
@@ -627,26 +632,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A16:B29"/>
+  <dimension ref="A11:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -654,7 +701,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -662,15 +709,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -678,73 +725,57 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
         <v>7</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\2024-2025\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B1BC9-B70B-43FA-B354-05A403004D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB451CF8-40C1-4CF4-97CA-36200BEB8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>KEDA-JuntosPeloRS-2024-06</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_2024-06</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-WebAPI-JWT-Swagger-Extensions-HttpFiles_ContagemAcessos</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A15:B34"/>
+  <dimension ref="A13:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +471,22 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
@@ -634,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
   <dimension ref="A11:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\2024-2025\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB451CF8-40C1-4CF4-97CA-36200BEB8312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275D869-5BD9-4D5E-923A-D4458CD27383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -143,6 +143,45 @@
   </si>
   <si>
     <t>ASPNETCore8-WebAPI-JWT-Swagger-Extensions-HttpFiles_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-Dapper-SqlServer-One_To_Many</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-MVC-AzureEventHubs-AppInsightsConnString_EnqueteCopaAmerica</t>
+  </si>
+  <si>
+    <t>DotNet8-Worker-AzureEventHubs-SqlServer-Dapper-AppInsightsConnString-Processor_EnqueteCopaAmerica</t>
+  </si>
+  <si>
+    <t>APIM-RateLimit-SubscriptionKey</t>
+  </si>
+  <si>
+    <t>KEDA-AzureEventHubs_EnqueteCopaAmerica2024</t>
+  </si>
+  <si>
+    <t>KEDA_DevOpsPro-2024-07</t>
+  </si>
+  <si>
+    <t>DotNet8-Consumer-RabbitMQ-MinimalAPIs_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>Kubernetes-KEDA-RabbitMQ-DotNet8-Consumer_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-DistributedTracing-OpenTelemetry-Postgres_APIContagem</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-DistributedTracing-OpenTelemetry-HttpInstrumentation_APIOrquestracao</t>
+  </si>
+  <si>
+    <t>Kubernetes-KEDA-MSSQL-Worker</t>
+  </si>
+  <si>
+    <t>Kubernetes-kind-KEDA-PostgreSQL-Worker</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-WebApi-JWT-Swagger-Extensions-CustomClaims-HttpFiles_ContagemAcessos</t>
   </si>
 </sst>
 </file>
@@ -460,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A13:B34"/>
+  <dimension ref="A10:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,6 +510,30 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
@@ -654,140 +717,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A11:B27"/>
+  <dimension ref="A8:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -795,13 +818,134 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="B27">
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\2024-2025\MVP_2024-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5275D869-5BD9-4D5E-923A-D4458CD27383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2875C-4FDC-4A0A-BCA4-0450DAC57611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -182,6 +182,30 @@
   </si>
   <si>
     <t>ASPNETCore8-WebApi-JWT-Swagger-Extensions-CustomClaims-HttpFiles_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>DotNet8-Flurl-JWT-Polly-Jose_ConsumoAPIContagem</t>
+  </si>
+  <si>
+    <t>DotNet8-Refit-JWE-Polly-Jose_ConsumoAPIContagem</t>
+  </si>
+  <si>
+    <t>KEDA-APIMetrics-AzureAPIM</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-WebApi-JWE-Swagger-Extensions-HttpFiles_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>DiagramasArquitetura-2024-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DotNet8-AzureFunctions-HttpTrigger-OpenAPI_ContagemAcessos-v2 </t>
+  </si>
+  <si>
+    <t>KEDA-Kafka_D.E.P.L.O.Y-2024-07</t>
+  </si>
+  <si>
+    <t>DotNet8-WorkerTests-Containers</t>
   </si>
 </sst>
 </file>
@@ -499,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A10:B34"/>
+  <dimension ref="A15:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,113 +534,73 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -624,55 +608,55 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -680,33 +664,113 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="B34">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
         <v>11</v>
       </c>
     </row>
@@ -717,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A8:B42"/>
+  <dimension ref="A8:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,6 +800,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
@@ -872,75 +952,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2875C-4FDC-4A0A-BCA4-0450DAC57611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515992CB-1619-482B-A89B-45092668EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>DotNet8-WorkerTests-Containers</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-Dapper-SQLite-One_To_One</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-RESTAPI-Metrics-Dockerfile_Simulation</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana-Tempo-DotNet8-APIs-PostgreSQL</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana-Tempo-Loki-DotNet8-APIs-PostgreSQL</t>
+  </si>
+  <si>
+    <t>GitHubActions-Workflow-Podman-Worker</t>
+  </si>
+  <si>
+    <t>GitHubActions-Workflow-Podman-APIMetrics</t>
+  </si>
+  <si>
+    <t>NGINX-FakeAPI_Saudacao</t>
+  </si>
+  <si>
+    <t>Testes-APIs-SENAI-2024-08</t>
   </si>
 </sst>
 </file>
@@ -523,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A15:B44"/>
+  <dimension ref="A10:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +558,46 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
@@ -584,111 +648,111 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -696,81 +760,89 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
         <v>11</v>
       </c>
     </row>
@@ -781,20 +853,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A8:B43"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -802,87 +928,135 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -890,145 +1064,57 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515992CB-1619-482B-A89B-45092668EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB53F5E8-BB95-48F9-83A6-78FC2B729CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -230,6 +230,33 @@
   </si>
   <si>
     <t>Testes-APIs-SENAI-2024-08</t>
+  </si>
+  <si>
+    <t>k6-SqlServer-LoadTests-AzureDevOps-Pipelines</t>
+  </si>
+  <si>
+    <t>k6-Postgres-LoadTests-AzureDevOps-Pipelines</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_Reactor-2024-08</t>
+  </si>
+  <si>
+    <t>CSharp13-ConsoleApp-IndexEndInitializer</t>
+  </si>
+  <si>
+    <t>Mermaid-DBs</t>
+  </si>
+  <si>
+    <t>DotNet8-BenchmarkDotNet-Tests-InputData-MySql-Dapper-EFCore-ADO</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Jaeger-DotNet8-APIs-PostgreSQL-Loki-Grafana</t>
+  </si>
+  <si>
+    <t>DotNet8-OpenTelemetry-Grafana-Tempo-Loki-PostgreSQL_APIContagem</t>
+  </si>
+  <si>
+    <t>DotNet8-OpenTelemetry-Grafana-Tempo-Loki-MySql_APIContagem</t>
   </si>
 </sst>
 </file>
@@ -547,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A10:B45"/>
+  <dimension ref="A9:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,9 +585,17 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -568,87 +603,87 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -656,151 +691,151 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -808,41 +843,81 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
         <v>4</v>
       </c>
-      <c r="B45">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
         <v>11</v>
       </c>
     </row>
@@ -853,98 +928,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A4:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -952,119 +1005,119 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1072,49 +1125,97 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="B32">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB53F5E8-BB95-48F9-83A6-78FC2B729CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA48C87-B2A0-42BF-A13C-666FC8F4A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -257,6 +257,81 @@
   </si>
   <si>
     <t>DotNet8-OpenTelemetry-Grafana-Tempo-Loki-MySql_APIContagem</t>
+  </si>
+  <si>
+    <t>DotNet8-OpenTelemetry-Grafana-Tempo-Loki_APIOrquestracao</t>
+  </si>
+  <si>
+    <t>Microservices-Kubernetes-UniMetrocamp-2024-08</t>
+  </si>
+  <si>
+    <t>Mermaid-AzureAPIM_Elements</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-OpenTelemetry-Grafana-Tempo-Loki-RabbitMQ-PostgreSQL_APIContagem</t>
+  </si>
+  <si>
+    <t>DotNet8-OpenTelemetry-Grafana-Tempo-Loki-SqlServer-MySql-PostgreSQL</t>
+  </si>
+  <si>
+    <t>AzureFunctions-Dotnet8_Sharebook-2024-09</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Trivy-DotNet6</t>
+  </si>
+  <si>
+    <t>DotNet8-ConsoleApp-PartialMethod-GeneratedRegex</t>
+  </si>
+  <si>
+    <t>AzurePipelines-ReactNative-Android-Build</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Jaeger-Loki-SqlServer-MySql-PostgreSQL</t>
+  </si>
+  <si>
+    <t>GitHubActions-ReactNative-Android-Build</t>
+  </si>
+  <si>
+    <t>ReactNative-AppHelloWorld</t>
+  </si>
+  <si>
+    <t>CSharp13-ConsoleApp-PartialProperty</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-JsonSchemaExporter</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-JsonObject-Order</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-OrderedDictionary</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-ReadOnlySet</t>
+  </si>
+  <si>
+    <t>k6-EntraID-APIM-LoadTests-Reports-JUnit-JWT-AzureDevOps_ContagemAcessos</t>
+  </si>
+  <si>
+    <t>GitHubActions-ReactNative-AndroidAppBuild-Build</t>
+  </si>
+  <si>
+    <t>Grafana_SENAI-2024-10</t>
+  </si>
+  <si>
+    <t>ReactNative-AutomacaoBuild_SENAI-2024-10</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-Base64Url</t>
+  </si>
+  <si>
+    <t>OWASPAPISecurityTop10-Mermaid</t>
+  </si>
+  <si>
+    <t>k6-MySql-LoadTests-AzureDevOps-Pipelines</t>
+  </si>
+  <si>
+    <t>Cypress-JUnitReport-AzureDevOps-Pipeline</t>
   </si>
 </sst>
 </file>
@@ -574,36 +649,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A9:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -611,15 +748,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -627,175 +764,175 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
         <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -803,121 +940,177 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
         <v>11</v>
       </c>
     </row>
@@ -928,28 +1121,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A4:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -957,47 +1172,47 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1005,23 +1220,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1029,47 +1244,47 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1077,7 +1292,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1085,23 +1300,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1109,15 +1324,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1125,87 +1340,87 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1213,9 +1428,65 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
         <v>0</v>
       </c>
-      <c r="B38">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA48C87-B2A0-42BF-A13C-666FC8F4A4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A421DA-5713-4E72-A321-DBF066DB9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -332,6 +332,69 @@
   </si>
   <si>
     <t>Cypress-JUnitReport-AzureDevOps-Pipeline</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-DebugAssert</t>
+  </si>
+  <si>
+    <t>BDD-DotNet8-2024-11</t>
+  </si>
+  <si>
+    <t>k6-LoadTests-2024-10</t>
+  </si>
+  <si>
+    <t>ASPNETCore8-REST_API-Logging-MonitoramentoWebhooks</t>
+  </si>
+  <si>
+    <t>Kubernetes-Grafana-Prometheus_Dashboards</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp_JobNotificacaoHttp</t>
+  </si>
+  <si>
+    <t>AzureContainerApps_2024-11</t>
+  </si>
+  <si>
+    <t>Mermaid-Copilot</t>
+  </si>
+  <si>
+    <t>Microservices-Kubernetes-2024-11</t>
+  </si>
+  <si>
+    <t>DotNet9-ASPNETCore-OpenAPI-Scalar_APIContagem</t>
+  </si>
+  <si>
+    <t>CSharp13-Lock_TryEnterExit-ASPNETCore_APIContagem</t>
+  </si>
+  <si>
+    <t>CSharp13-Lock_EnterExit-ASPNETCore_APIContagem</t>
+  </si>
+  <si>
+    <t>CSharp13-Lock_EnterScope-ASPNETCore_APIContagem</t>
+  </si>
+  <si>
+    <t>CSharp13-Lock-ASPNETCore_APIContagem</t>
+  </si>
+  <si>
+    <t>CSharp13-ConsoleApp-FieldKeyword</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-BuildingBlocksAI-Ollama-AzureOpenAI</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-BuildingBlocksAI</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-GuidV7</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-GuidV7-v2</t>
+  </si>
+  <si>
+    <t>DotNet8-ConsoleApp_JobNotificacaoHttp</t>
+  </si>
+  <si>
+    <t>Nuvem-IA-Mercado_2024-11</t>
   </si>
 </sst>
 </file>
@@ -649,9 +712,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -660,31 +723,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -692,119 +755,119 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -812,127 +875,127 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -940,79 +1003,79 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -1020,97 +1083,233 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54">
         <v>5</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
         <v>11</v>
       </c>
     </row>
@@ -1121,122 +1320,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A6:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1244,55 +1405,55 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1300,95 +1461,95 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1396,31 +1557,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1428,65 +1589,137 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
+      <c r="B52">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>0</v>
       </c>
-      <c r="B45">
+      <c r="B54">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A421DA-5713-4E72-A321-DBF066DB9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750170-72C5-4E26-AD1D-BC673990ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>Nuvem-IA-Mercado_2024-11</t>
+  </si>
+  <si>
+    <t>GitHubActions-DockerScout-DotNet6</t>
+  </si>
+  <si>
+    <t>AzureDevOps-DockerScout-DotNet6</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-SearchValues</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Snyk-DotNet6</t>
   </si>
 </sst>
 </file>
@@ -712,9 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -723,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -731,63 +745,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -795,39 +809,39 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -835,127 +849,127 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -963,135 +977,135 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -1099,31 +1113,31 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1131,119 +1145,119 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1251,65 +1265,81 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
         <v>11</v>
       </c>
     </row>
@@ -1320,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A6:B54"/>
+  <dimension ref="A4:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1361,22 @@
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>110</v>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750170-72C5-4E26-AD1D-BC673990ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B70B23-7F91-43FE-9A91-11B88FD20ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -407,6 +407,51 @@
   </si>
   <si>
     <t>AzureDevOps-Snyk-DotNet6</t>
+  </si>
+  <si>
+    <t>GitHubActions-DockerBuild-PAT</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Checkov-Terraform</t>
+  </si>
+  <si>
+    <t>GitHubActions-Checkov-Terraform</t>
+  </si>
+  <si>
+    <t>OpenTelemetry_2024-12</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-DistributedTracing-OpenTelemetry-Postgres_APIContagem</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-DistributedTracing-OpenTelemetry-Grafana_APIContagem</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-DistributedTracing-OpenTelemetry-Grafana_APIOrquestracao</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana_DevReferencias-2024</t>
+  </si>
+  <si>
+    <t>OWASP-Docker</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_2024-12</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana_DevOpsExperience-2024-08</t>
+  </si>
+  <si>
+    <t>CSharp13-ConsoleApp-OverloadResolution</t>
+  </si>
+  <si>
+    <t>kind_4alltests-2024-05</t>
+  </si>
+  <si>
+    <t>Docker-Kubernetes_DevOpsExperience-2024-11</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_2024-07</t>
   </si>
 </sst>
 </file>
@@ -724,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,55 +782,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -793,31 +838,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -825,39 +870,39 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -865,127 +910,127 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -993,159 +1038,159 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1153,119 +1198,119 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -1273,7 +1318,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1281,15 +1326,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -1297,7 +1342,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1305,15 +1350,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -1321,25 +1366,49 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
         <v>11</v>
       </c>
     </row>
@@ -1350,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A4:B54"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,145 +1430,169 @@
     <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1507,39 +1600,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B26">
         <v>14</v>
@@ -1547,7 +1640,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1555,23 +1648,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1579,39 +1672,39 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1619,39 +1712,39 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1659,63 +1752,63 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1723,49 +1816,121 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
         <v>6</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>47</v>
       </c>
-      <c r="B52">
+      <c r="B61">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>3</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B54">
+      <c r="B63">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B70B23-7F91-43FE-9A91-11B88FD20ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DC7FDF-BB9B-4057-9782-99770EC5627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -452,6 +452,24 @@
   </si>
   <si>
     <t>OWASP-ApiTop10-Vulnerabilites_2024-07</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana_DEVPIRA-2025</t>
+  </si>
+  <si>
+    <t>Grafana-Azure_ANP-2025-01</t>
+  </si>
+  <si>
+    <t>GitHubActions-FOSSA-DotNet-FluentAssertions</t>
+  </si>
+  <si>
+    <t>OWASP-AI</t>
+  </si>
+  <si>
+    <t>Nuvem-IA-Mercado_Anhanguera-2024-10</t>
+  </si>
+  <si>
+    <t>Nuvem-IA-Mercado_CEUNSP-2024-12</t>
   </si>
 </sst>
 </file>
@@ -769,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A4:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,73 +798,33 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -854,23 +832,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -878,47 +856,47 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -926,95 +904,95 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1022,7 +1000,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1030,39 +1008,39 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -1070,39 +1048,39 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -1110,79 +1088,79 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1190,7 +1168,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1198,95 +1176,95 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
         <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63">
-        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1294,121 +1272,177 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
         <v>11</v>
       </c>
     </row>
@@ -1419,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,79 +1466,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1512,255 +1546,255 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1768,169 +1802,201 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>0</v>
       </c>
-      <c r="B63">
+      <c r="B67">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DC7FDF-BB9B-4057-9782-99770EC5627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC5E57-F8D9-4111-B51B-29B67D1DA349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Nuvem-IA-Mercado_CEUNSP-2024-12</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-REST_API-Minimal-HybridCacheInMemory_HorarioAtual</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-REST_API-Minimal-HybridCache_HorarioAtual</t>
   </si>
 </sst>
 </file>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A4:B86"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,49 +804,89 @@
     <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -848,71 +894,71 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -920,79 +966,79 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1000,119 +1046,119 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1120,47 +1166,47 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1168,63 +1214,63 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1232,119 +1278,119 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -1352,7 +1398,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1360,15 +1406,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1376,7 +1422,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1384,15 +1430,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -1400,49 +1446,25 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86">
         <v>11</v>
       </c>
     </row>
@@ -1455,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC5E57-F8D9-4111-B51B-29B67D1DA349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B10259-23C2-49BA-8E9F-25925E1F14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -476,6 +476,54 @@
   </si>
   <si>
     <t>ASPNETCore9-REST_API-Minimal-HybridCache_HorarioAtual</t>
+  </si>
+  <si>
+    <t>AzureDevOps-ScanCode-DotNet-FluentAssertions</t>
+  </si>
+  <si>
+    <t>AzureDevOps-OSSReviewToolkit-DotNet-FluentAssertions</t>
+  </si>
+  <si>
+    <t>AzureDevOps-detect-secrets-DotNet6</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Checkov-Bicep-Data</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Checkov-ARM-AzureDataFactory</t>
+  </si>
+  <si>
+    <t>ArquiteturaIntegracoes-2025-01</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Checkov-YAML_Kubernetes</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-DistributedTracing-OpenTelemetry-Jaeger-Postgres_APIContagem</t>
+  </si>
+  <si>
+    <t>Containers_ACBr-2024-02</t>
+  </si>
+  <si>
+    <t>Flutter-AppContagemClicks</t>
+  </si>
+  <si>
+    <t>AzurePipelines-Flutter-Android-iOS-Build</t>
+  </si>
+  <si>
+    <t>GitHubActions-Flutter-Android-Build</t>
+  </si>
+  <si>
+    <t>GitHubActions-Flutter-iOS-Build</t>
+  </si>
+  <si>
+    <t>DotNet10-ConsoleApp-Numeric-Ordering-for-String-Comparison</t>
+  </si>
+  <si>
+    <t>DotNet10-ConsoleApp-ISOWeek_Overloads</t>
+  </si>
+  <si>
+    <t>ASPNETCore10-OpenApiYAML_Saudacao</t>
   </si>
 </sst>
 </file>
@@ -793,11 +841,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,31 +852,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -838,23 +884,23 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -862,7 +908,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -870,15 +916,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -886,15 +932,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -902,23 +948,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -926,47 +972,47 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -974,7 +1020,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -982,103 +1028,103 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1086,55 +1132,55 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1142,31 +1188,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -1174,7 +1220,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -1182,39 +1228,39 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -1222,71 +1268,71 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1294,79 +1340,79 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -1374,7 +1420,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1382,55 +1428,55 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>13</v>
@@ -1438,33 +1484,113 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
         <v>11</v>
       </c>
     </row>
@@ -1475,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,55 +1614,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1544,111 +1670,111 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -1656,31 +1782,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1688,159 +1814,159 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1848,127 +1974,127 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1976,49 +2102,97 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
         <v>0</v>
       </c>
-      <c r="B67">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B10259-23C2-49BA-8E9F-25925E1F14A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54DE85-F3A6-4494-9D5D-1870691516FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>ASPNETCore10-OpenApiYAML_Saudacao</t>
+  </si>
+  <si>
+    <t>AzureDevOps-DotNet9-BenchmarkDotNet-Tests-InputData-SqlServer-Testcontainers</t>
+  </si>
+  <si>
+    <t>DotNet9-BenchmarkDotNet-Tests-InputData-SqlServer-Dapper-EFCore-ADO-DbUp</t>
+  </si>
+  <si>
+    <t>SAST-DAST_DevOpsExperience-2024-07</t>
   </si>
 </sst>
 </file>
@@ -841,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,119 +861,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -972,7 +901,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -980,71 +909,71 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1052,15 +981,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1068,143 +997,143 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -1212,103 +1141,103 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -1316,23 +1245,23 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1340,7 +1269,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -1348,47 +1277,47 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1396,127 +1325,127 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77">
         <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77">
-        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B79">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -1524,7 +1453,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1532,65 +1461,169 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B89">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
         <v>11</v>
       </c>
     </row>
@@ -1604,7 +1637,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA54DE85-F3A6-4494-9D5D-1870691516FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5DE02-DAF7-4BDE-B00F-5837819C41AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -533,6 +533,18 @@
   </si>
   <si>
     <t>SAST-DAST_DevOpsExperience-2024-07</t>
+  </si>
+  <si>
+    <t>CertificacoesKubernetes_DevOpsExperience-2025-01</t>
+  </si>
+  <si>
+    <t>AzureDevOps-MobSF-Android-iOS-Security</t>
+  </si>
+  <si>
+    <t>GitHubActions-MobSF-Android-iOS-Security</t>
+  </si>
+  <si>
+    <t>ASPNETCore9-DistributedTracing-OpenTelemetry-ElasticAPM-Postgres_APIContagem</t>
   </si>
 </sst>
 </file>
@@ -852,7 +864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -867,6 +881,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>167</v>
@@ -1634,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,319 +1685,319 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1975,63 +2005,63 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2039,31 +2069,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2071,47 +2101,47 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -2119,113 +2149,129 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>26</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>25</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>0</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B5DE02-DAF7-4BDE-B00F-5837819C41AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96377F4-6FDA-4C2F-9B3E-A2DC0FA973DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -545,6 +545,33 @@
   </si>
   <si>
     <t>ASPNETCore9-DistributedTracing-OpenTelemetry-ElasticAPM-Postgres_APIContagem</t>
+  </si>
+  <si>
+    <t>DotNet9-Testcontainers-Postgres_BoasPraticas</t>
+  </si>
+  <si>
+    <t>DotNet9-ConsoleApp-Testcontainers-SqlServer</t>
+  </si>
+  <si>
+    <t>DotNet9-BenchmarkDotNet-Tests-InputData-SqlServer-Testcontainers</t>
+  </si>
+  <si>
+    <t>DotNet9-BenchmarkDotNet-Tests-InputData-SqlServer-Testcontainers_v2</t>
+  </si>
+  <si>
+    <t>GitHubActions-DotNet9-BenchmarkDotNet-Tests-InputData-SqlServer-Testcontainers</t>
+  </si>
+  <si>
+    <t>Testcontainers_SENAI-2025-03</t>
+  </si>
+  <si>
+    <t>OpenTelemetry-Grafana_DEVPIRAFestival-2024</t>
+  </si>
+  <si>
+    <t>Kubernetes_DevPiraWkndCapivari-2024-09</t>
+  </si>
+  <si>
+    <t>Monolitos-CloudNative-Modernizacao_ItuDevelopers-2024-09</t>
   </si>
 </sst>
 </file>
@@ -862,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,25 +908,89 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -907,23 +998,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -931,31 +1022,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -963,39 +1054,39 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1003,39 +1094,39 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1043,31 +1134,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1075,39 +1166,39 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1115,127 +1206,127 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1243,151 +1334,151 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -1395,31 +1486,31 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -1427,71 +1518,71 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -1499,79 +1590,79 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B90">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B93">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1579,81 +1670,65 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B104">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106">
         <v>11</v>
       </c>
     </row>
@@ -1664,11 +1739,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1765,10 +1838,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,303 +1886,303 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2117,15 +2190,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2133,47 +2206,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2181,97 +2254,121 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>0</v>
       </c>
-      <c r="B75">
+      <c r="B78">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96377F4-6FDA-4C2F-9B3E-A2DC0FA973DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D463040-4926-428D-A2BC-22DD32CAEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -572,6 +572,27 @@
   </si>
   <si>
     <t>Monolitos-CloudNative-Modernizacao_ItuDevelopers-2024-09</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_TDC-SP-2024</t>
+  </si>
+  <si>
+    <t>Testcontainers_DevOpsExperience-2025-02</t>
+  </si>
+  <si>
+    <t>CloudComputing-2024-Estacio</t>
+  </si>
+  <si>
+    <t>GitHubCopilot-Mermaid_Estacio-2024-10</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_2025-03</t>
+  </si>
+  <si>
+    <t>TwelveFactorApp_UniMetrocamp-2025-03</t>
+  </si>
+  <si>
+    <t>AzureWellArchitected_UniMetrocamp-2025-03</t>
   </si>
 </sst>
 </file>
@@ -889,11 +910,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -902,95 +921,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -998,7 +1017,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1006,15 +1025,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1022,95 +1041,95 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1118,71 +1137,71 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1190,79 +1209,79 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1270,71 +1289,71 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1342,39 +1361,39 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -1382,31 +1401,31 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1414,7 +1433,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -1422,55 +1441,55 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -1478,15 +1497,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -1494,15 +1513,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -1510,183 +1529,183 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="B87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B88">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B90">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1694,41 +1713,81 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B100">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
         <v>11</v>
       </c>
     </row>
@@ -1739,9 +1798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1750,71 +1811,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1822,31 +1883,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1854,7 +1915,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1862,15 +1923,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1878,15 +1939,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1894,199 +1955,199 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2094,15 +2155,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2110,7 +2171,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2118,79 +2179,79 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2198,177 +2259,193 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>26</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>57</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D463040-4926-428D-A2BC-22DD32CAEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E256C11-F799-4A80-B83D-271209A81BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>AzureWellArchitected_UniMetrocamp-2025-03</t>
+  </si>
+  <si>
+    <t>SegurancaAPIs_DataSaturday-2024-10</t>
+  </si>
+  <si>
+    <t>Mermaid-Copilot_DataSaturday-2024-10</t>
+  </si>
+  <si>
+    <t>Mermaid-Copilot_SQLTuesday-2024-12</t>
+  </si>
+  <si>
+    <t>SegurancaAPIs_DevOpsExperience-2024-06</t>
+  </si>
+  <si>
+    <t>DotNet9-AIBuildingBlocks_TDC-PortoAlegre-2024-12</t>
+  </si>
+  <si>
+    <t>DotNet9_DEVPIRA-2025-01</t>
+  </si>
+  <si>
+    <t>SegurancaContainers_DevOpsExperience-2025-03</t>
+  </si>
+  <si>
+    <t>OWASP-ApiTop10-Vulnerabilites_TDCFloripa2024</t>
   </si>
 </sst>
 </file>
@@ -910,9 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1081,55 +1107,55 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1137,23 +1163,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1161,71 +1187,71 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1233,79 +1259,79 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -1313,111 +1339,111 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1425,327 +1451,327 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="B92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B93">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1753,41 +1779,81 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B105">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B107">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114">
         <v>11</v>
       </c>
     </row>
@@ -1798,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,79 +1877,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1891,31 +1957,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1923,7 +1989,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1931,15 +1997,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1947,15 +2013,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1963,143 +2029,143 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2107,79 +2173,79 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2187,63 +2253,63 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -2251,31 +2317,31 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2283,63 +2349,63 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2347,105 +2413,129 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>26</v>
       </c>
-      <c r="B68">
+      <c r="B71">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>25</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>184</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>57</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>0</v>
       </c>
-      <c r="B80">
+      <c r="B83">
         <v>2</v>
       </c>
     </row>

--- a/totais-github.xlsx
+++ b/totais-github.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Renato\MVP\MVP 2025\github\MVP_2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E256C11-F799-4A80-B83D-271209A81BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CF18E-2AC2-4A21-9575-3B04F7962CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="3" r:id="rId1"/>
     <sheet name="azure" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
   <si>
     <t>APIM-AzureADB2C-ValidateJWT</t>
   </si>
@@ -617,6 +629,24 @@
   </si>
   <si>
     <t>OWASP-ApiTop10-Vulnerabilites_TDCFloripa2024</t>
+  </si>
+  <si>
+    <t>DotNet9_2024-11</t>
+  </si>
+  <si>
+    <t>Mermaid-Copilot_TDCSummitIABrasilia</t>
+  </si>
+  <si>
+    <t>AzureDevOps-DockerScout_Container-DotNet6</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Checkov-Dockerfile</t>
+  </si>
+  <si>
+    <t>AzureDevOps-KICS-Terraform-AKS</t>
+  </si>
+  <si>
+    <t>AzureDevOps-Trivy-kind</t>
   </si>
 </sst>
 </file>
@@ -934,11 +964,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E285B642-FB4F-4069-BF30-C850529F02A0}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1179,39 +1207,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1219,7 +1247,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1227,23 +1255,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1251,7 +1279,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1259,31 +1287,31 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1291,7 +1319,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1299,47 +1327,47 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -1347,7 +1375,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1355,95 +1383,95 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1451,151 +1479,151 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B77">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -1603,183 +1631,183 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="B97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B100">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -1787,7 +1815,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1795,15 +1823,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -1811,7 +1839,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1819,15 +1847,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -1835,25 +1863,49 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
         <v>4</v>
       </c>
-      <c r="B114">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117">
         <v>11</v>
       </c>
     </row>
@@ -1864,11 +1916,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97EB474-B626-4D3C-9FC8-82BCDE465C19}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1885,63 +1935,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1949,7 +1999,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1957,23 +2007,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1981,135 +2031,135 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2117,239 +2167,239 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2357,31 +2407,31 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2389,47 +2439,47 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2437,105 +2487,129 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="B71">
+      <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>184</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>57</v>
       </c>
-      <c r="B74">
+      <c r="B77">
         <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>0</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <v>2</v>
       </c>
     </row>
@@ -2543,4 +2617,1424 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CE786D-632C-42B8-A705-E868CCD3227F}">
+  <dimension ref="A1:C117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="b">
+        <f>A1=C1</f>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="b">
+        <f t="shared" ref="B2:B65" si="0">A2=C2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="b">
+        <f t="shared" ref="B66:B117" si="1">A66=C66</f>
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>